--- a/downloaded_files/EPES425_Lecture-35412.xlsx
+++ b/downloaded_files/EPES425_Lecture-35412.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,15 +51,6 @@
     <x:t>Ossama Khaled Hussein EzzElDin Zaki</x:t>
   </x:si>
   <x:si>
-    <x:t>1210131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>باكينام حاتم حافظ شعبان السيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pakiname hatem hafez chaaban</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210216</x:t>
   </x:si>
   <x:si>
@@ -87,24 +78,6 @@
     <x:t>Zeyad Ehab Mohamed Mamdouh Nafeeh</x:t>
   </x:si>
   <x:si>
-    <x:t>1210229</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد محمد محمود عبدالعال حسين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ziad mohamed mahmoud abdel al Hussien</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210240</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سهيلة عمرو عبد العزيز احمد محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sohaila amr abdelaziz</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210387</x:t>
   </x:si>
   <x:si>
@@ -184,15 +157,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ramadan Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210089</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يحيى عزب محمد محمد العزب الباجوري</x:t>
-  </x:si>
-  <x:si>
-    <x:t>yahia azab mohamed mohamed alazab albagoury</x:t>
   </x:si>
   <x:si>
     <x:t>1190293</x:t>
@@ -317,7 +281,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +581,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -772,7 +736,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4145330208</x:v>
+        <x:v>45906.4150331829</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -804,7 +768,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4150331829</x:v>
+        <x:v>45906.4432493403</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -836,7 +800,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4432493403</x:v>
+        <x:v>45906.6646109954</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -868,7 +832,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6646109954</x:v>
+        <x:v>45906.4142920486</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -900,7 +864,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4265956829</x:v>
+        <x:v>45906.4142606134</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -932,7 +896,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4533125347</x:v>
+        <x:v>45906.4338459144</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -964,7 +928,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4142920486</x:v>
+        <x:v>45906.4149338773</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -996,7 +960,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4142606134</x:v>
+        <x:v>45906.4144406597</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1028,7 +992,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4338459144</x:v>
+        <x:v>45906.4434304398</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1060,7 +1024,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4149338773</x:v>
+        <x:v>45906.4166358449</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1092,7 +1056,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4144406597</x:v>
+        <x:v>45906.4143864236</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1124,7 +1088,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4434304398</x:v>
+        <x:v>45906.4146538542</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1156,7 +1120,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4166358449</x:v>
+        <x:v>45906.4142618056</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1173,134 +1137,6 @@
       <x:c r="R16" s="2" t="s"/>
       <x:c r="S16" s="2" t="s"/>
       <x:c r="T16" s="2" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:20">
-      <x:c r="A17" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B17" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C17" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="E17" s="3">
-        <x:v>45906.4143864236</x:v>
-      </x:c>
-      <x:c r="F17" s="2" t="s"/>
-      <x:c r="G17" s="2" t="s"/>
-      <x:c r="H17" s="2" t="s"/>
-      <x:c r="I17" s="2" t="s"/>
-      <x:c r="J17" s="2" t="s"/>
-      <x:c r="K17" s="2" t="s"/>
-      <x:c r="L17" s="2" t="s"/>
-      <x:c r="M17" s="2" t="s"/>
-      <x:c r="N17" s="2" t="s"/>
-      <x:c r="O17" s="2" t="s"/>
-      <x:c r="P17" s="2" t="s"/>
-      <x:c r="Q17" s="2" t="s"/>
-      <x:c r="R17" s="2" t="s"/>
-      <x:c r="S17" s="2" t="s"/>
-      <x:c r="T17" s="2" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:20">
-      <x:c r="A18" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B18" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C18" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="E18" s="3">
-        <x:v>45906.4146538542</x:v>
-      </x:c>
-      <x:c r="F18" s="2" t="s"/>
-      <x:c r="G18" s="2" t="s"/>
-      <x:c r="H18" s="2" t="s"/>
-      <x:c r="I18" s="2" t="s"/>
-      <x:c r="J18" s="2" t="s"/>
-      <x:c r="K18" s="2" t="s"/>
-      <x:c r="L18" s="2" t="s"/>
-      <x:c r="M18" s="2" t="s"/>
-      <x:c r="N18" s="2" t="s"/>
-      <x:c r="O18" s="2" t="s"/>
-      <x:c r="P18" s="2" t="s"/>
-      <x:c r="Q18" s="2" t="s"/>
-      <x:c r="R18" s="2" t="s"/>
-      <x:c r="S18" s="2" t="s"/>
-      <x:c r="T18" s="2" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:20">
-      <x:c r="A19" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B19" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C19" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E19" s="3">
-        <x:v>45906.6654673958</x:v>
-      </x:c>
-      <x:c r="F19" s="2" t="s"/>
-      <x:c r="G19" s="2" t="s"/>
-      <x:c r="H19" s="2" t="s"/>
-      <x:c r="I19" s="2" t="s"/>
-      <x:c r="J19" s="2" t="s"/>
-      <x:c r="K19" s="2" t="s"/>
-      <x:c r="L19" s="2" t="s"/>
-      <x:c r="M19" s="2" t="s"/>
-      <x:c r="N19" s="2" t="s"/>
-      <x:c r="O19" s="2" t="s"/>
-      <x:c r="P19" s="2" t="s"/>
-      <x:c r="Q19" s="2" t="s"/>
-      <x:c r="R19" s="2" t="s"/>
-      <x:c r="S19" s="2" t="s"/>
-      <x:c r="T19" s="2" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:20">
-      <x:c r="A20" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E20" s="3">
-        <x:v>45906.4142618056</x:v>
-      </x:c>
-      <x:c r="F20" s="2" t="s"/>
-      <x:c r="G20" s="2" t="s"/>
-      <x:c r="H20" s="2" t="s"/>
-      <x:c r="I20" s="2" t="s"/>
-      <x:c r="J20" s="2" t="s"/>
-      <x:c r="K20" s="2" t="s"/>
-      <x:c r="L20" s="2" t="s"/>
-      <x:c r="M20" s="2" t="s"/>
-      <x:c r="N20" s="2" t="s"/>
-      <x:c r="O20" s="2" t="s"/>
-      <x:c r="P20" s="2" t="s"/>
-      <x:c r="Q20" s="2" t="s"/>
-      <x:c r="R20" s="2" t="s"/>
-      <x:c r="S20" s="2" t="s"/>
-      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES425_Lecture-35412.xlsx
+++ b/downloaded_files/EPES425_Lecture-35412.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,12 @@
   </x:si>
   <x:si>
     <x:t>Ossama Khaled Hussein EzzElDin Zaki</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250459</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تيما غسان الراعى</x:t>
   </x:si>
   <x:si>
     <x:t>1210216</x:t>
@@ -281,7 +287,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -581,7 +587,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T16"/>
+  <x:dimension ref="A1:T17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -591,7 +597,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="30.460625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.580625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -732,11 +738,9 @@
       <x:c r="C4" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D4" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="D4" s="2" t="s"/>
       <x:c r="E4" s="3">
-        <x:v>45906.4150331829</x:v>
+        <x:v>45935.7907480324</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -759,16 +763,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
+      <x:c r="D5" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4432493403</x:v>
+        <x:v>45906.4150331829</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -791,16 +795,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C6" s="2" t="s">
+      <x:c r="D6" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6646109954</x:v>
+        <x:v>45906.4432493403</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -823,16 +827,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C7" s="2" t="s">
+      <x:c r="D7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4142920486</x:v>
+        <x:v>45906.6646109954</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -855,16 +859,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4142606134</x:v>
+        <x:v>45906.4142920486</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -887,16 +891,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="D9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4338459144</x:v>
+        <x:v>45906.4142606134</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -919,16 +923,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="s">
+      <x:c r="D10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4149338773</x:v>
+        <x:v>45906.4338459144</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -951,16 +955,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C11" s="2" t="s">
+      <x:c r="D11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4144406597</x:v>
+        <x:v>45906.4149338773</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -983,16 +987,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="s">
+      <x:c r="D12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4434304398</x:v>
+        <x:v>45906.4144406597</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1015,16 +1019,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4166358449</x:v>
+        <x:v>45906.4434304398</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1047,16 +1051,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4143864236</x:v>
+        <x:v>45906.4166358449</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1079,16 +1083,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4146538542</x:v>
+        <x:v>45906.4143864236</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1111,16 +1115,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4142618056</x:v>
+        <x:v>45906.4146538542</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1137,6 +1141,38 @@
       <x:c r="R16" s="2" t="s"/>
       <x:c r="S16" s="2" t="s"/>
       <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45906.4142618056</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
